--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -486,7 +486,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,21 +564,13 @@
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -589,9 +581,8 @@
     <hyperlink ref="B2" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="3510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="3800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -71,6 +73,30 @@
   </si>
   <si>
     <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>MacBook</t>
+  </si>
+  <si>
+    <t>iMac</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -485,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,4 +611,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="lakshmi@yahoo.com"/>
+    <hyperlink ref="A5" r:id="rId2" display="laks@yahoo.com"/>
+    <hyperlink ref="A2" r:id="rId3" display="laksh@yahoo.com"/>
+    <hyperlink ref="A4" r:id="rId4" display="lakshmi@yahoo.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="lakshmi@yahoo.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="laksh@yahoo.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="3800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="4240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N9"/>
+  <oleSize ref="A1:I8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -177,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,10 +188,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,82 +534,74 @@
     <col min="3" max="3" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-    </row>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
@@ -615,7 +619,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -623,7 +627,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -631,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -639,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -647,7 +651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -655,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -663,11 +667,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -684,15 +688,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -700,7 +704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -708,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -716,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -724,8 +728,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="lakshmi@yahoo.com"/>
